--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_10_13.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_10_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-518766.586773155</v>
+        <v>-521530.3071906602</v>
       </c>
     </row>
     <row r="7">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>301.2031947357059</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>234.0809158256695</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.1218245061576</v>
       </c>
       <c r="H2" t="n">
         <v>317.1395267625767</v>
@@ -707,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>159.3225143941714</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>28.0250973048068</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>152.2965331323911</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>158.4718484708394</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -756,7 +756,7 @@
         <v>100.9657305724881</v>
       </c>
       <c r="I3" t="n">
-        <v>49.220768972003</v>
+        <v>49.22076897200299</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>27.70821261417721</v>
+        <v>27.7082126141772</v>
       </c>
       <c r="S3" t="n">
         <v>150.0086763867283</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>100.2833776599317</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -829,16 +829,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>48.71562996080758</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>126.0308522529592</v>
       </c>
       <c r="J4" t="n">
-        <v>24.19460770493656</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>286.2656684931155</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>77.81637188157129</v>
       </c>
       <c r="G5" t="n">
         <v>412.9169039459368</v>
       </c>
       <c r="H5" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.32297882951943</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
         <v>251.1547862223006</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>152.7120966692326</v>
       </c>
       <c r="I7" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>76.90909551495476</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>33.29081387702554</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>412.9169039459368</v>
+        <v>353.7663865058012</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>118.4960408938903</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>104.381090423122</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
         <v>212.651863114966</v>
@@ -1190,13 +1190,13 @@
         <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>7.242727921694335</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1345,19 +1345,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>157.7437631512627</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710084</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>58.24570521548985</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>117.6579322793577</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892404</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>118.6708469029954</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>79.14040151643906</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1895,7 +1895,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2011,16 +2011,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>30.65104903283332</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,13 +2053,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>30.87238256912091</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>56.10180801516471</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>43.73846614325402</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428213</v>
+        <v>136.9649966249141</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710084</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2618,7 +2618,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784699</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>99.97427419833859</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,13 +3004,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>285.5970594671156</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3032,7 +3032,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206838</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428212</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>26.13627195705896</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206838</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3475,10 +3475,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3554,7 +3554,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3670,16 +3670,16 @@
         <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308924</v>
       </c>
       <c r="G40" t="n">
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652695</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3794,7 +3794,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808338</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3977,13 +3977,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652669</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1406.263402774178</v>
+        <v>1159.301165034302</v>
       </c>
       <c r="C2" t="n">
-        <v>1406.263402774178</v>
+        <v>790.33864809389</v>
       </c>
       <c r="D2" t="n">
-        <v>1169.8180332533</v>
+        <v>790.33864809389</v>
       </c>
       <c r="E2" t="n">
-        <v>784.0297806550556</v>
+        <v>790.33864809389</v>
       </c>
       <c r="F2" t="n">
-        <v>373.043875865448</v>
+        <v>790.33864809389</v>
       </c>
       <c r="G2" t="n">
         <v>373.043875865448</v>
@@ -4328,19 +4328,19 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J2" t="n">
-        <v>56.7167168989374</v>
+        <v>56.71671689893743</v>
       </c>
       <c r="K2" t="n">
-        <v>434.3778328439195</v>
+        <v>434.3778328439196</v>
       </c>
       <c r="L2" t="n">
-        <v>955.1764697961471</v>
+        <v>756.4704812736688</v>
       </c>
       <c r="M2" t="n">
-        <v>1106.253447874885</v>
+        <v>907.5474593524067</v>
       </c>
       <c r="N2" t="n">
-        <v>1498.656284429274</v>
+        <v>1498.656284429273</v>
       </c>
       <c r="O2" t="n">
         <v>2011.63594824586</v>
@@ -4355,25 +4355,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S2" t="n">
-        <v>2474.114144259258</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="T2" t="n">
-        <v>2474.114144259258</v>
+        <v>2606.737797884878</v>
       </c>
       <c r="U2" t="n">
-        <v>2474.114144259258</v>
+        <v>2606.737797884878</v>
       </c>
       <c r="V2" t="n">
-        <v>2474.114144259258</v>
+        <v>2275.674910541307</v>
       </c>
       <c r="W2" t="n">
-        <v>2474.114144259258</v>
+        <v>1922.906255271193</v>
       </c>
       <c r="X2" t="n">
-        <v>2100.648385998178</v>
+        <v>1549.440497010113</v>
       </c>
       <c r="Y2" t="n">
-        <v>1710.509054022366</v>
+        <v>1159.301165034302</v>
       </c>
     </row>
     <row r="3">
@@ -4383,7 +4383,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>971.1160536571714</v>
+        <v>956.7355985890135</v>
       </c>
       <c r="C3" t="n">
         <v>796.6630243760444</v>
@@ -4407,25 +4407,25 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J3" t="n">
-        <v>161.1049789658725</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K3" t="n">
-        <v>473.0056259847076</v>
+        <v>102.7809819159951</v>
       </c>
       <c r="L3" t="n">
-        <v>953.7989331188901</v>
+        <v>441.2972108827407</v>
       </c>
       <c r="M3" t="n">
-        <v>1566.841266629547</v>
+        <v>1054.339544393398</v>
       </c>
       <c r="N3" t="n">
-        <v>1737.267069331175</v>
+        <v>1699.314297695144</v>
       </c>
       <c r="O3" t="n">
-        <v>2014.947997810781</v>
+        <v>2222.924512669272</v>
       </c>
       <c r="P3" t="n">
-        <v>2418.188289942097</v>
+        <v>2626.164804800588</v>
       </c>
       <c r="Q3" t="n">
         <v>2635.045976980643</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>274.2607178348788</v>
+        <v>429.2142453572493</v>
       </c>
       <c r="C4" t="n">
-        <v>274.2607178348788</v>
+        <v>429.2142453572493</v>
       </c>
       <c r="D4" t="n">
-        <v>274.2607178348788</v>
+        <v>327.9179042866112</v>
       </c>
       <c r="E4" t="n">
-        <v>126.3476242524857</v>
+        <v>180.0048107042182</v>
       </c>
       <c r="F4" t="n">
-        <v>126.3476242524857</v>
+        <v>180.0048107042182</v>
       </c>
       <c r="G4" t="n">
-        <v>77.13991722136696</v>
+        <v>180.0048107042182</v>
       </c>
       <c r="H4" t="n">
-        <v>77.13991722136696</v>
+        <v>180.0048107042182</v>
       </c>
       <c r="I4" t="n">
-        <v>77.13991722136696</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J4" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="K4" t="n">
-        <v>143.1761752316762</v>
+        <v>143.1761752316763</v>
       </c>
       <c r="L4" t="n">
-        <v>314.4797875801786</v>
+        <v>314.4797875801787</v>
       </c>
       <c r="M4" t="n">
-        <v>505.4845513574094</v>
+        <v>505.4845513574095</v>
       </c>
       <c r="N4" t="n">
-        <v>697.3822651905092</v>
+        <v>697.3822651905093</v>
       </c>
       <c r="O4" t="n">
-        <v>858.6145679459046</v>
+        <v>858.6145679459048</v>
       </c>
       <c r="P4" t="n">
-        <v>973.0559744652728</v>
+        <v>973.055974465273</v>
       </c>
       <c r="Q4" t="n">
-        <v>973.0559744652728</v>
+        <v>973.055974465273</v>
       </c>
       <c r="R4" t="n">
-        <v>973.0559744652728</v>
+        <v>973.055974465273</v>
       </c>
       <c r="S4" t="n">
-        <v>973.0559744652728</v>
+        <v>973.055974465273</v>
       </c>
       <c r="T4" t="n">
-        <v>973.0559744652728</v>
+        <v>973.055974465273</v>
       </c>
       <c r="U4" t="n">
-        <v>683.8987335631359</v>
+        <v>683.8987335631361</v>
       </c>
       <c r="V4" t="n">
-        <v>683.8987335631359</v>
+        <v>429.2142453572493</v>
       </c>
       <c r="W4" t="n">
-        <v>683.8987335631359</v>
+        <v>429.2142453572493</v>
       </c>
       <c r="X4" t="n">
-        <v>455.9091826651186</v>
+        <v>429.2142453572493</v>
       </c>
       <c r="Y4" t="n">
-        <v>455.9091826651186</v>
+        <v>429.2142453572493</v>
       </c>
     </row>
     <row r="5">
@@ -4541,49 +4541,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1264.980528218788</v>
+        <v>1037.046584683457</v>
       </c>
       <c r="C5" t="n">
-        <v>1264.980528218788</v>
+        <v>668.0840677430456</v>
       </c>
       <c r="D5" t="n">
-        <v>1264.980528218788</v>
+        <v>668.0840677430456</v>
       </c>
       <c r="E5" t="n">
-        <v>1264.980528218788</v>
+        <v>668.0840677430456</v>
       </c>
       <c r="F5" t="n">
-        <v>853.9946234291804</v>
+        <v>589.4816719030746</v>
       </c>
       <c r="G5" t="n">
-        <v>436.9068416656078</v>
+        <v>172.393890139502</v>
       </c>
       <c r="H5" t="n">
-        <v>118.6837264381173</v>
+        <v>172.393890139502</v>
       </c>
       <c r="I5" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J5" t="n">
-        <v>73.93516953299616</v>
+        <v>241.3408185533492</v>
       </c>
       <c r="K5" t="n">
-        <v>156.4983241075885</v>
+        <v>644.8079315733946</v>
       </c>
       <c r="L5" t="n">
-        <v>709.3115823537878</v>
+        <v>1197.621189819594</v>
       </c>
       <c r="M5" t="n">
-        <v>896.0109951791954</v>
+        <v>1384.320602645002</v>
       </c>
       <c r="N5" t="n">
-        <v>1523.318663239042</v>
+        <v>2011.628270704848</v>
       </c>
       <c r="O5" t="n">
-        <v>2070.479868006119</v>
+        <v>2181.797296021808</v>
       </c>
       <c r="P5" t="n">
-        <v>2499.794914345414</v>
+        <v>2389.870016205742</v>
       </c>
       <c r="Q5" t="n">
         <v>2635.045976980643</v>
@@ -4595,22 +4595,22 @@
         <v>2635.045976980643</v>
       </c>
       <c r="T5" t="n">
-        <v>2635.045976980643</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="U5" t="n">
-        <v>2381.354273725794</v>
+        <v>2166.554411993505</v>
       </c>
       <c r="V5" t="n">
-        <v>2381.354273725794</v>
+        <v>2166.554411993505</v>
       </c>
       <c r="W5" t="n">
-        <v>2028.585618455679</v>
+        <v>1813.785756723391</v>
       </c>
       <c r="X5" t="n">
-        <v>1655.1198601946</v>
+        <v>1813.785756723391</v>
       </c>
       <c r="Y5" t="n">
-        <v>1264.980528218788</v>
+        <v>1423.646424747579</v>
       </c>
     </row>
     <row r="6">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>478.3571847634319</v>
+        <v>503.9621495500938</v>
       </c>
       <c r="C7" t="n">
-        <v>478.3571847634319</v>
+        <v>503.9621495500938</v>
       </c>
       <c r="D7" t="n">
-        <v>478.3571847634319</v>
+        <v>353.8455101377581</v>
       </c>
       <c r="E7" t="n">
-        <v>478.3571847634319</v>
+        <v>353.8455101377581</v>
       </c>
       <c r="F7" t="n">
-        <v>331.4672372655215</v>
+        <v>206.9555626398478</v>
       </c>
       <c r="G7" t="n">
-        <v>331.4672372655215</v>
+        <v>206.9555626398478</v>
       </c>
       <c r="H7" t="n">
-        <v>177.2125941652866</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I7" t="n">
         <v>52.70091953961285</v>
@@ -4747,28 +4747,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R7" t="n">
-        <v>974.9496459333468</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="S7" t="n">
-        <v>767.5093611857521</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T7" t="n">
-        <v>767.5093611857521</v>
+        <v>827.0064043113226</v>
       </c>
       <c r="U7" t="n">
-        <v>478.3571847634319</v>
+        <v>827.0064043113226</v>
       </c>
       <c r="V7" t="n">
-        <v>478.3571847634319</v>
+        <v>793.3793195870544</v>
       </c>
       <c r="W7" t="n">
-        <v>478.3571847634319</v>
+        <v>503.9621495500938</v>
       </c>
       <c r="X7" t="n">
-        <v>478.3571847634319</v>
+        <v>503.9621495500938</v>
       </c>
       <c r="Y7" t="n">
-        <v>478.3571847634319</v>
+        <v>503.9621495500938</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1687.653208860584</v>
+        <v>1326.507831876648</v>
       </c>
       <c r="C8" t="n">
-        <v>1318.690691920173</v>
+        <v>1326.507831876648</v>
       </c>
       <c r="D8" t="n">
-        <v>1318.690691920173</v>
+        <v>1326.507831876648</v>
       </c>
       <c r="E8" t="n">
-        <v>1318.690691920173</v>
+        <v>940.7195792784037</v>
       </c>
       <c r="F8" t="n">
-        <v>907.7047871305651</v>
+        <v>529.7336744887962</v>
       </c>
       <c r="G8" t="n">
-        <v>490.6170053669925</v>
+        <v>172.393890139502</v>
       </c>
       <c r="H8" t="n">
         <v>172.393890139502</v>
@@ -4802,25 +4802,25 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J8" t="n">
-        <v>241.3408185533492</v>
+        <v>73.93516953299616</v>
       </c>
       <c r="K8" t="n">
-        <v>323.9039731279416</v>
+        <v>156.4983241075885</v>
       </c>
       <c r="L8" t="n">
-        <v>876.7172313741407</v>
+        <v>683.1408478992852</v>
       </c>
       <c r="M8" t="n">
-        <v>1508.435042357452</v>
+        <v>1314.858658882597</v>
       </c>
       <c r="N8" t="n">
-        <v>2135.742710417299</v>
+        <v>1942.166326942443</v>
       </c>
       <c r="O8" t="n">
-        <v>2305.911735734258</v>
+        <v>2489.327531709521</v>
       </c>
       <c r="P8" t="n">
-        <v>2416.646060983785</v>
+        <v>2600.061856959047</v>
       </c>
       <c r="Q8" t="n">
         <v>2635.045976980643</v>
@@ -4829,25 +4829,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S8" t="n">
-        <v>2529.610532108802</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T8" t="n">
-        <v>2314.810670376513</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="U8" t="n">
-        <v>2061.118967121664</v>
+        <v>2010.339374490333</v>
       </c>
       <c r="V8" t="n">
-        <v>2061.118967121664</v>
+        <v>1679.276487146762</v>
       </c>
       <c r="W8" t="n">
-        <v>2061.118967121664</v>
+        <v>1326.507831876648</v>
       </c>
       <c r="X8" t="n">
-        <v>1687.653208860584</v>
+        <v>1326.507831876648</v>
       </c>
       <c r="Y8" t="n">
-        <v>1687.653208860584</v>
+        <v>1326.507831876648</v>
       </c>
     </row>
     <row r="9">
@@ -4887,19 +4887,19 @@
         <v>120.3087392029699</v>
       </c>
       <c r="L9" t="n">
-        <v>624.6702790690885</v>
+        <v>591.7266525668458</v>
       </c>
       <c r="M9" t="n">
-        <v>1265.215628536193</v>
+        <v>1232.27200203395</v>
       </c>
       <c r="N9" t="n">
-        <v>1638.905258545106</v>
+        <v>1430.928743686615</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.341267297829</v>
+        <v>1980.364752439338</v>
       </c>
       <c r="P9" t="n">
-        <v>2612.309035778665</v>
+        <v>2404.332520920175</v>
       </c>
       <c r="Q9" t="n">
         <v>2635.045976980643</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>375.8917455677547</v>
+        <v>60.01680632920309</v>
       </c>
       <c r="C10" t="n">
-        <v>206.9555626398478</v>
+        <v>60.01680632920309</v>
       </c>
       <c r="D10" t="n">
-        <v>206.9555626398478</v>
+        <v>60.01680632920309</v>
       </c>
       <c r="E10" t="n">
-        <v>206.9555626398478</v>
+        <v>60.01680632920309</v>
       </c>
       <c r="F10" t="n">
-        <v>206.9555626398478</v>
+        <v>60.01680632920309</v>
       </c>
       <c r="G10" t="n">
-        <v>206.9555626398478</v>
+        <v>60.01680632920309</v>
       </c>
       <c r="H10" t="n">
-        <v>52.70091953961285</v>
+        <v>60.01680632920309</v>
       </c>
       <c r="I10" t="n">
-        <v>52.70091953961285</v>
+        <v>60.01680632920309</v>
       </c>
       <c r="J10" t="n">
         <v>52.70091953961285</v>
@@ -4993,19 +4993,19 @@
         <v>1052.635600998958</v>
       </c>
       <c r="U10" t="n">
-        <v>893.2984665027327</v>
+        <v>763.4834245766374</v>
       </c>
       <c r="V10" t="n">
-        <v>893.2984665027327</v>
+        <v>508.7989363707505</v>
       </c>
       <c r="W10" t="n">
-        <v>603.881296465772</v>
+        <v>508.7989363707505</v>
       </c>
       <c r="X10" t="n">
-        <v>375.8917455677547</v>
+        <v>280.8093854727332</v>
       </c>
       <c r="Y10" t="n">
-        <v>375.8917455677547</v>
+        <v>60.01680632920309</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
         <v>1948.813509611463</v>
@@ -5030,28 +5030,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5121,19 +5121,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>427.7414352191925</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969303</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>577.8620388433919</v>
+        <v>695.5020655703148</v>
       </c>
       <c r="C13" t="n">
-        <v>408.925855915485</v>
+        <v>526.5658826424079</v>
       </c>
       <c r="D13" t="n">
-        <v>408.925855915485</v>
+        <v>376.4492432300722</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2261.070983590888</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2041.469518613829</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1752.394291958027</v>
+        <v>1688.38585385471</v>
       </c>
       <c r="V13" t="n">
-        <v>1497.70980375214</v>
+        <v>1433.701365648823</v>
       </c>
       <c r="W13" t="n">
-        <v>1208.292633715179</v>
+        <v>1144.284195611862</v>
       </c>
       <c r="X13" t="n">
-        <v>980.3030828171618</v>
+        <v>916.2946447138449</v>
       </c>
       <c r="Y13" t="n">
-        <v>759.5105036736317</v>
+        <v>695.5020655703148</v>
       </c>
     </row>
     <row r="14">
@@ -5273,28 +5273,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,16 +5352,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L15" t="n">
-        <v>716.6687843969308</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M15" t="n">
         <v>716.6687843969308</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>948.5505208511906</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C16" t="n">
-        <v>779.6143379232838</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>2264.108249235165</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U16" t="n">
-        <v>1975.033022579363</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V16" t="n">
-        <v>1720.348534373476</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W16" t="n">
-        <v>1430.931364336515</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X16" t="n">
-        <v>1350.99156482496</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y16" t="n">
-        <v>1130.19898568143</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="17">
@@ -5501,31 +5501,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>956.9553291057244</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C19" t="n">
-        <v>788.0191461778176</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D19" t="n">
-        <v>637.9025067654818</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>266.4891497944943</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>266.4891497944943</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>266.4891497944943</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>124.7773186366924</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5692,31 +5692,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2165.878320670274</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U19" t="n">
-        <v>1876.803094014472</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V19" t="n">
-        <v>1876.803094014472</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W19" t="n">
-        <v>1587.385923977512</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X19" t="n">
-        <v>1359.396373079494</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y19" t="n">
-        <v>1138.603793935964</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="20">
@@ -5750,28 +5750,28 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5832,25 +5832,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>719.5738700011939</v>
+        <v>988.1395539230172</v>
       </c>
       <c r="C22" t="n">
-        <v>550.637687073287</v>
+        <v>819.2033709951103</v>
       </c>
       <c r="D22" t="n">
-        <v>550.637687073287</v>
+        <v>669.0867315827745</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>521.1736380003814</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>374.283690502471</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5914,46 +5914,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797736</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2402.78281474869</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2183.181349771631</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U22" t="n">
-        <v>1894.106123115829</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V22" t="n">
-        <v>1639.421634909942</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="W22" t="n">
-        <v>1350.004464872981</v>
+        <v>1618.570148794804</v>
       </c>
       <c r="X22" t="n">
-        <v>1122.014913974964</v>
+        <v>1390.580597896787</v>
       </c>
       <c r="Y22" t="n">
-        <v>901.2223348314336</v>
+        <v>1169.788018753257</v>
       </c>
     </row>
     <row r="23">
@@ -5963,52 +5963,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6069,25 +6069,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>800.5007694647281</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>631.5645865368213</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>481.4479471244855</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>481.4479471244855</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>481.4479471244855</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>314.2518478393654</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>982.1492342949679</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,25 +6212,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M26" t="n">
         <v>2206.55866301478</v>
@@ -6245,7 +6245,7 @@
         <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398594</v>
@@ -6266,7 +6266,7 @@
         <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6306,25 +6306,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797189</v>
+        <v>409.1360811687895</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797189</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.793114229131</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468418</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6364,16 +6364,16 @@
         <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>194.8007783998291</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>194.8007783998291</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>194.8007783998291</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797189</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797189</v>
@@ -6458,13 +6458,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,10 +6473,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,22 +6537,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6652,19 +6652,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.979202260897</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="32">
@@ -6674,40 +6674,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355938</v>
@@ -6716,34 +6716,34 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,28 +6771,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>409.1360811687895</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270447</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782958</v>
@@ -6880,28 +6880,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2420.562808876161</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2420.562808876161</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>2131.487582220359</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6929,55 +6929,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,28 +7008,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7087,10 +7087,10 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7123,7 +7123,7 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
         <v>1746.193029533436</v>
@@ -7202,10 +7202,10 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7254,25 +7254,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797189</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319335</v>
+        <v>926.9575315319332</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656828</v>
+        <v>782.5512955656826</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150035</v>
+        <v>656.9646031150032</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942666</v>
+        <v>533.5814564942664</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580125</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345487</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384031</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797189</v>
@@ -7406,25 +7406,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694708</v>
@@ -7442,7 +7442,7 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
         <v>3820.749612123003</v>
@@ -7488,22 +7488,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>119.2902967703784</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951537</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190824</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P42" t="n">
         <v>2319.799627685893</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345476</v>
@@ -7564,16 +7564,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J43" t="n">
         <v>198.0944824954151</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380731</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979287</v>
@@ -7582,34 +7582,34 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7628,7 +7628,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
         <v>1204.759558406469</v>
@@ -7640,7 +7640,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192599</v>
@@ -7649,46 +7649,46 @@
         <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349513</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,52 +7780,52 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319332</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656826</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150032</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942664</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580123</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345485</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384029</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954147</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380726</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311326</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R46" t="n">
         <v>2596.781734931274</v>
@@ -7837,19 +7837,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838287</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582391</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400517</v>
       </c>
     </row>
   </sheetData>
@@ -7982,13 +7982,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>216.9480948307754</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>236.6338046923095</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O2" t="n">
         <v>380.8001812627454</v>
@@ -8055,28 +8055,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>16.59198541489398</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>227.1261249323108</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>145.4488985751924</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8228,13 +8228,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>98.3216110448561</v>
       </c>
       <c r="Q5" t="n">
-        <v>101.2797400137713</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>391.2261292428723</v>
       </c>
       <c r="M8" t="n">
         <v>449.5135334928325</v>
@@ -8465,16 +8465,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>185.2684807830934</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298244</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8535,13 +8535,13 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>337.5639548971535</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>176.8008973295436</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>-1.591615728102624e-12</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>-5.400124791776761e-13</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>81.53064692777463</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>252.4815393480282</v>
       </c>
       <c r="G2" t="n">
-        <v>413.1218245061576</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>126.3962407918022</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,19 +22595,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>159.3225143941714</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>185.5238055625257</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1711798671183</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>88.18825743107932</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>63.36835372228691</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23659,7 +23659,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>27.76311574357382</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>146.5692538725981</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>50.61478728573221</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,13 +23941,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>186.5330677581674</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>109.4223302771041</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,19 +24172,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>137.2878198583906</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194173</v>
+        <v>3.329716221309752</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,10 +24613,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>65.54986409393025</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856552</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,13 +24892,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>0.5874149221285165</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194174</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>154.8900140445856</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25363,10 +25363,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25558,7 +25558,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>-7.409628594034053e-13</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>-8.810729923425242e-13</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>229059.6437758987</v>
+        <v>229059.6437758986</v>
       </c>
       <c r="C2" t="n">
+        <v>266838.5752058921</v>
+      </c>
+      <c r="D2" t="n">
         <v>266838.5752058923</v>
       </c>
-      <c r="D2" t="n">
-        <v>266838.5752058922</v>
-      </c>
       <c r="E2" t="n">
-        <v>262322.644899252</v>
+        <v>262322.6448992519</v>
       </c>
       <c r="F2" t="n">
         <v>262322.6448992519</v>
@@ -26332,7 +26332,7 @@
         <v>262322.644899252</v>
       </c>
       <c r="I2" t="n">
-        <v>262322.644899252</v>
+        <v>262322.6448992519</v>
       </c>
       <c r="J2" t="n">
         <v>262322.6448992519</v>
@@ -26344,16 +26344,16 @@
         <v>262322.644899252</v>
       </c>
       <c r="M2" t="n">
-        <v>262322.644899252</v>
+        <v>262322.6448992519</v>
       </c>
       <c r="N2" t="n">
         <v>266838.5752058924</v>
       </c>
       <c r="O2" t="n">
-        <v>266838.5752058923</v>
+        <v>266838.5752058922</v>
       </c>
       <c r="P2" t="n">
-        <v>266838.5752058921</v>
+        <v>266838.5752058924</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>743528.2149067213</v>
+        <v>743528.2149067214</v>
       </c>
       <c r="C3" t="n">
         <v>46417.01665456987</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>775688.3472765846</v>
+        <v>775688.3472765845</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26399,7 +26399,7 @@
         <v>128077.5968157138</v>
       </c>
       <c r="N3" t="n">
-        <v>19427.71799363181</v>
+        <v>19427.71799363178</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>189891.8124216188</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.424496707412</v>
+        <v>6897.424496707411</v>
       </c>
       <c r="F4" t="n">
         <v>6897.424496707359</v>
       </c>
       <c r="G4" t="n">
+        <v>6897.424496707368</v>
+      </c>
+      <c r="H4" t="n">
         <v>6897.42449670736</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>6897.424496707361</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
+        <v>6897.424496707321</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6897.424496707328</v>
+      </c>
+      <c r="L4" t="n">
         <v>6897.42449670735</v>
       </c>
-      <c r="J4" t="n">
-        <v>6897.42449670732</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>6897.424496707361</v>
       </c>
-      <c r="L4" t="n">
-        <v>6897.424496707324</v>
-      </c>
-      <c r="M4" t="n">
-        <v>6897.424496707324</v>
-      </c>
       <c r="N4" t="n">
+        <v>14888.28375980077</v>
+      </c>
+      <c r="O4" t="n">
+        <v>14888.2837598008</v>
+      </c>
+      <c r="P4" t="n">
         <v>14888.28375980081</v>
-      </c>
-      <c r="O4" t="n">
-        <v>14888.28375980081</v>
-      </c>
-      <c r="P4" t="n">
-        <v>14888.28375980085</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-732983.3227927772</v>
+        <v>-733273.9299576235</v>
       </c>
       <c r="C6" t="n">
-        <v>-56088.33170777193</v>
+        <v>-56088.3317077721</v>
       </c>
       <c r="D6" t="n">
-        <v>-9671.315053202212</v>
+        <v>-9671.315053202154</v>
       </c>
       <c r="E6" t="n">
-        <v>-621385.6566979471</v>
+        <v>-621420.3946233827</v>
       </c>
       <c r="F6" t="n">
-        <v>154302.6905786377</v>
+        <v>154267.9526532018</v>
       </c>
       <c r="G6" t="n">
-        <v>154302.6905786376</v>
+        <v>154267.9526532018</v>
       </c>
       <c r="H6" t="n">
-        <v>154302.6905786375</v>
+        <v>154267.9526532019</v>
       </c>
       <c r="I6" t="n">
-        <v>154302.6905786374</v>
+        <v>154267.9526532015</v>
       </c>
       <c r="J6" t="n">
-        <v>-18058.30182164344</v>
+        <v>-18093.03974707908</v>
       </c>
       <c r="K6" t="n">
-        <v>154302.6905786375</v>
+        <v>154267.9526532017</v>
       </c>
       <c r="L6" t="n">
-        <v>154302.6905786375</v>
+        <v>154267.9526532018</v>
       </c>
       <c r="M6" t="n">
-        <v>26225.09376292377</v>
+        <v>26190.35583748799</v>
       </c>
       <c r="N6" t="n">
         <v>129358.4575985444</v>
       </c>
       <c r="O6" t="n">
-        <v>148786.1755921761</v>
+        <v>148786.175592176</v>
       </c>
       <c r="P6" t="n">
-        <v>148786.1755921759</v>
+        <v>148786.1755921762</v>
       </c>
     </row>
   </sheetData>
@@ -26719,13 +26719,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>542.5021109831439</v>
+        <v>542.502110983144</v>
       </c>
       <c r="C3" t="n">
         <v>593.4761003380651</v>
@@ -26817,10 +26817,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099649</v>
@@ -26829,7 +26829,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>542.5021109831439</v>
+        <v>542.502110983144</v>
       </c>
       <c r="C3" t="n">
-        <v>50.97398935492112</v>
+        <v>50.97398935492111</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036089</v>
+        <v>774.4994000036087</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>120.6021257950134</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>154.3945063936833</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>126.3962407918023</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,19 +27424,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>12.8723411409691</v>
+        <v>12.87234114096907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>213.5489028673325</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1711798671183</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27455,10 +27455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14.23665051747622</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>14.23665051747631</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>48.3320953582807</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27549,16 +27549,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>118.2970669024357</v>
+        <v>167.0126968632433</v>
       </c>
       <c r="H4" t="n">
         <v>153.5293517772508</v>
       </c>
       <c r="I4" t="n">
-        <v>126.0308522529593</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>24.19460770493654</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>4.244224493239656</v>
+        <v>4.244224493239642</v>
       </c>
       <c r="R4" t="n">
         <v>133.3062530013887</v>
@@ -27594,13 +27594,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27625,16 +27625,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>329.0596738601402</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
-        <v>53.17306206437087</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27792,7 +27792,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J7" t="n">
         <v>17.69584188176898</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>52.26408615283655</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T7" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>218.8468294468025</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27853,22 +27853,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>59.15051744013562</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>50.27179670501815</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,13 +27910,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28026,13 +28026,13 @@
         <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
         <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>10.45311396007465</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28065,19 +28065,19 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>128.5168915068343</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.133261760295336e-12</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28302,7 +28302,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>3.758651504979533e-12</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28764,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28986,7 +28986,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>-9.426533627750662e-13</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -29275,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>-8.682195192673605e-13</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29338,7 +29338,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="44">
@@ -30703,7 +30703,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
   </sheetData>
@@ -31039,34 +31039,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.180913008977461</v>
+        <v>2.180913008977462</v>
       </c>
       <c r="H2" t="n">
-        <v>22.33527535319043</v>
+        <v>22.33527535319044</v>
       </c>
       <c r="I2" t="n">
-        <v>84.07964877860366</v>
+        <v>84.07964877860367</v>
       </c>
       <c r="J2" t="n">
         <v>185.102265495701</v>
       </c>
       <c r="K2" t="n">
-        <v>277.4203131657169</v>
+        <v>277.420313165717</v>
       </c>
       <c r="L2" t="n">
-        <v>344.164429664211</v>
+        <v>344.1644296642111</v>
       </c>
       <c r="M2" t="n">
-        <v>382.9492413876139</v>
+        <v>382.949241387614</v>
       </c>
       <c r="N2" t="n">
         <v>389.1457604743712</v>
       </c>
       <c r="O2" t="n">
-        <v>367.4593067413515</v>
+        <v>367.4593067413516</v>
       </c>
       <c r="P2" t="n">
-        <v>313.6180168322204</v>
+        <v>313.6180168322205</v>
       </c>
       <c r="Q2" t="n">
         <v>235.514069698215</v>
@@ -31075,10 +31075,10 @@
         <v>136.9967768001806</v>
       </c>
       <c r="S2" t="n">
-        <v>49.69755519207395</v>
+        <v>49.69755519207396</v>
       </c>
       <c r="T2" t="n">
-        <v>9.546946696798841</v>
+        <v>9.546946696798843</v>
       </c>
       <c r="U2" t="n">
         <v>0.1744730407181969</v>
@@ -31130,37 +31130,37 @@
         <v>110.2456412517727</v>
       </c>
       <c r="K3" t="n">
-        <v>188.4273605666642</v>
+        <v>188.4273605666643</v>
       </c>
       <c r="L3" t="n">
-        <v>253.3638396624579</v>
+        <v>253.363839662458</v>
       </c>
       <c r="M3" t="n">
         <v>295.6636504858134</v>
       </c>
       <c r="N3" t="n">
-        <v>303.4889875395231</v>
+        <v>303.4889875395232</v>
       </c>
       <c r="O3" t="n">
-        <v>277.6331322122887</v>
+        <v>277.6331322122888</v>
       </c>
       <c r="P3" t="n">
-        <v>222.8250651696615</v>
+        <v>222.8250651696616</v>
       </c>
       <c r="Q3" t="n">
         <v>148.9526550759757</v>
       </c>
       <c r="R3" t="n">
-        <v>72.44962153846592</v>
+        <v>72.44962153846593</v>
       </c>
       <c r="S3" t="n">
         <v>21.67449471710956</v>
       </c>
       <c r="T3" t="n">
-        <v>4.703390943334991</v>
+        <v>4.703390943334992</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07676916664855814</v>
+        <v>0.07676916664855815</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,25 +31197,25 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9782824952155053</v>
+        <v>0.9782824952155055</v>
       </c>
       <c r="H4" t="n">
-        <v>8.697820730188772</v>
+        <v>8.697820730188774</v>
       </c>
       <c r="I4" t="n">
-        <v>29.41962267429902</v>
+        <v>29.41962267429903</v>
       </c>
       <c r="J4" t="n">
-        <v>69.16457241173622</v>
+        <v>69.16457241173623</v>
       </c>
       <c r="K4" t="n">
-        <v>113.6586389895832</v>
+        <v>113.6586389895833</v>
       </c>
       <c r="L4" t="n">
         <v>145.443926606858</v>
       </c>
       <c r="M4" t="n">
-        <v>153.350227863645</v>
+        <v>153.3502278636451</v>
       </c>
       <c r="N4" t="n">
         <v>149.7039021996601</v>
@@ -31227,19 +31227,19 @@
         <v>118.3188210577007</v>
       </c>
       <c r="Q4" t="n">
-        <v>81.91781875845473</v>
+        <v>81.91781875845474</v>
       </c>
       <c r="R4" t="n">
-        <v>43.9871383757808</v>
+        <v>43.98713837578081</v>
       </c>
       <c r="S4" t="n">
-        <v>17.04879584843748</v>
+        <v>17.04879584843749</v>
       </c>
       <c r="T4" t="n">
-        <v>4.179934297738976</v>
+        <v>4.179934297738977</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05336086337539126</v>
+        <v>0.05336086337539127</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>164.2853229338207</v>
       </c>
       <c r="M12" t="n">
-        <v>433.9798411722585</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,19 +32072,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>277.4567226539314</v>
+        <v>164.2853229338207</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32312,13 +32312,13 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,16 +32327,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>550.5977692975241</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32552,10 +32552,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>456.3459017226598</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>688.8020111197787</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32789,28 +32789,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -33026,10 +33026,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>456.3459017226597</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862122</v>
@@ -33038,16 +33038,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33257,7 +33257,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33275,7 +33275,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33494,13 +33494,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>456.3459017226597</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473073</v>
@@ -33512,10 +33512,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33731,10 +33731,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422586</v>
@@ -33749,10 +33749,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>543.0832917018706</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33974,28 +33974,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34208,25 +34208,25 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>230.1272937575231</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.5996128485291</v>
@@ -34442,7 +34442,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
@@ -34457,19 +34457,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>616.9033572954392</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>483.3274636075158</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742439</v>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.05636096901469</v>
+        <v>4.056360969014719</v>
       </c>
       <c r="K2" t="n">
-        <v>381.4758746919011</v>
+        <v>381.4758746919012</v>
       </c>
       <c r="L2" t="n">
-        <v>526.0592292446743</v>
+        <v>325.3461095249992</v>
       </c>
       <c r="M2" t="n">
-        <v>152.6030081603412</v>
+        <v>152.6030081603413</v>
       </c>
       <c r="N2" t="n">
-        <v>396.3665015700897</v>
+        <v>597.0796212897644</v>
       </c>
       <c r="O2" t="n">
-        <v>518.1612765824101</v>
+        <v>518.1612765824102</v>
       </c>
       <c r="P2" t="n">
-        <v>404.1837292484335</v>
+        <v>404.1837292484336</v>
       </c>
       <c r="Q2" t="n">
         <v>225.5233704836702</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>109.4990499255148</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>315.0511586048839</v>
+        <v>50.58592159230528</v>
       </c>
       <c r="L3" t="n">
-        <v>485.649805186043</v>
+        <v>341.9355848148946</v>
       </c>
       <c r="M3" t="n">
         <v>619.234680313795</v>
       </c>
       <c r="N3" t="n">
-        <v>172.1472754561898</v>
+        <v>651.4896497997433</v>
       </c>
       <c r="O3" t="n">
-        <v>280.4857863430367</v>
+        <v>528.8992070445738</v>
       </c>
       <c r="P3" t="n">
-        <v>407.3134263952684</v>
+        <v>407.3134263952685</v>
       </c>
       <c r="Q3" t="n">
-        <v>219.0481687258033</v>
+        <v>8.970880989954196</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,13 +34857,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>91.38914716370037</v>
+        <v>91.3891471637004</v>
       </c>
       <c r="L4" t="n">
         <v>173.0339518671741</v>
       </c>
       <c r="M4" t="n">
-        <v>192.9341048254856</v>
+        <v>192.9341048254857</v>
       </c>
       <c r="N4" t="n">
         <v>193.8360745788887</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K5" t="n">
-        <v>83.39712583292157</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L5" t="n">
         <v>558.3972305517163</v>
@@ -34948,13 +34948,13 @@
         <v>633.6441091513602</v>
       </c>
       <c r="O5" t="n">
-        <v>552.6880856233105</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P5" t="n">
-        <v>433.6515619588832</v>
+        <v>210.1744648322566</v>
       </c>
       <c r="Q5" t="n">
-        <v>136.6172349850794</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K8" t="n">
         <v>83.39712583292157</v>
       </c>
       <c r="L8" t="n">
-        <v>558.3972305517163</v>
+        <v>531.9621452441381</v>
       </c>
       <c r="M8" t="n">
         <v>638.0987989730422</v>
@@ -35185,13 +35185,13 @@
         <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
-        <v>171.8879043605652</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
         <v>111.8528537874005</v>
       </c>
       <c r="Q8" t="n">
-        <v>220.6059757544016</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35255,13 +35255,13 @@
         <v>68.29072693268387</v>
       </c>
       <c r="L9" t="n">
-        <v>509.4561008748672</v>
+        <v>476.1797104685616</v>
       </c>
       <c r="M9" t="n">
         <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>377.4642727362756</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
@@ -35270,7 +35270,7 @@
         <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="M12" t="n">
-        <v>291.8458072502402</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35720,19 +35720,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>138.9023428740572</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35890,7 +35890,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,16 +35975,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>416.6233618831939</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36060,7 +36060,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998995</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36200,10 +36200,10 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>546.2057666753343</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36282,7 +36282,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191305</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
         <v>426.2724270010451</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36674,10 +36674,10 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>318.5044627483007</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,16 +36686,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36838,7 +36838,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193518</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36923,7 +36923,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>318.5044627483007</v>
       </c>
       <c r="L33" t="n">
         <v>500.3288951674331</v>
@@ -37160,10 +37160,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37379,10 +37379,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37397,10 +37397,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549932</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
         <v>288.6172359016747</v>
@@ -37856,25 +37856,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>25.73094315394598</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="O42" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625076</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549932</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
         <v>288.6172359016747</v>
@@ -37947,7 +37947,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
         <v>397.5465471980852</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -38105,19 +38105,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>485.5616452121058</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>340.7312191630714</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>105.3311307549932</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
         <v>288.6172359016747</v>
@@ -38184,7 +38184,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
         <v>397.5465471980852</v>
